--- a/branches/master/StructureDefinition-questionnaire-s371.xlsx
+++ b/branches/master/StructureDefinition-questionnaire-s371.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Profile : QuestionnaireS37</t>
+    <t>Profile : Questionnaire.item extensions</t>
   </si>
   <si>
     <t>Status</t>

--- a/branches/master/StructureDefinition-questionnaire-s371.xlsx
+++ b/branches/master/StructureDefinition-questionnaire-s371.xlsx
@@ -1014,7 +1014,7 @@
     <t>Settings</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://science37.com/fhir/StructureDefinition/s37-settings}
+    <t xml:space="preserve">Extension {http://science37.com/fhir/StructureDefinition/settings}
 </t>
   </si>
   <si>

--- a/branches/master/StructureDefinition-questionnaire-s371.xlsx
+++ b/branches/master/StructureDefinition-questionnaire-s371.xlsx
@@ -1018,7 +1018,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Extension : Questionnaire.item </t>
+    <t xml:space="preserve">Extension : Questionnaire.item.settings </t>
   </si>
   <si>
     <t xml:space="preserve">ele-1

--- a/branches/master/StructureDefinition-questionnaire-s371.xlsx
+++ b/branches/master/StructureDefinition-questionnaire-s371.xlsx
@@ -45,67 +45,67 @@
     <t>Title</t>
   </si>
   <si>
+    <t>Profile : Questionnaire.item extensions</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2022-04-07T10:59:49+00:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>xxxYour Work Group</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>Questionnaire</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>Experimental</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2022-04-07T10:59:49+00:00</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>xxxYour Work Group</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>No display for ContactDetail</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>World</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Profile : Questionnaire.item extensions</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>FHIR Version</t>
-  </si>
-  <si>
-    <t>4.0.1</t>
-  </si>
-  <si>
-    <t>Kind</t>
-  </si>
-  <si>
-    <t>resource</t>
-  </si>
-  <si>
-    <t>Type</t>
   </si>
   <si>
     <t>Base Definition</t>
@@ -1015,7 +1015,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Settings </t>
+    <t xml:space="preserve">Extension : Settings </t>
   </si>
   <si>
     <t xml:space="preserve">Extension : Questionnaire.item.settings </t>
@@ -1721,43 +1721,43 @@
         <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1966,7 +1966,7 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
@@ -2046,7 +2046,7 @@
         <v>79</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>77</v>

--- a/branches/master/StructureDefinition-questionnaire-s371.xlsx
+++ b/branches/master/StructureDefinition-questionnaire-s371.xlsx
@@ -5634,7 +5634,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>78</v>
@@ -5746,7 +5746,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>85</v>
